--- a/biology/Zoologie/Aquiloeurycea/Aquiloeurycea.xlsx
+++ b/biology/Zoologie/Aquiloeurycea/Aquiloeurycea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aquiloeurycea  est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aquiloeurycea  est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre sont endémiques du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre sont endémiques du Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2015) :
 Aquiloeurycea cafetalera (Parra-Olea, Rovito, Márquez-Valdelmar, Cruz, Murrieta-Galindo &amp; Wake, 2010)
 Aquiloeurycea cephalica (Cope, 1865)
 Aquiloeurycea galeanae (Taylor, 1941)
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rovito, Parra-Olea, Recuero &amp; Wake, 2015 : Diversification and biogeographical history of Neotropical plethodontid salamanders. Zoological Journal of the Linnean Society, vol. 175, p. 167–188.</t>
         </is>
